--- a/T4Dir/Login_Details.xlsx
+++ b/T4Dir/Login_Details.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tims1\Documents\GitHub\Yr12-Minor\T4Dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702B6007-9E40-40B0-81A2-9945F2BAE29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B1792-712B-43EF-A5EF-E48B6CC0911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1699F636-18A2-42C5-BDD4-4ECC858E1E33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F616EC57-F1C9-43A8-BFA2-21221C29CA45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/T4Dir/Login_Details.xlsx
+++ b/T4Dir/Login_Details.xlsx
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A corp</t>
+          <t>Tim Corp</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
